--- a/xlsx/User-Seasurfer_intext.xlsx
+++ b/xlsx/User-Seasurfer_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_User-Seasurfer</t>
+    <t>神经内科</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_User-Seasurfer</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E9%87%8D%E7%97%87</t>
   </si>
   <si>
-    <t>神經重症</t>
+    <t>神经重症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%87%91%E6%A3%AE%E6%B0%8F%E7%97%87</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E6%96%87</t>
   </si>
   <si>
-    <t>馬來西亞華文</t>
+    <t>马来西亚华文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/User:Seasurfer/%E9%A6%96%E5%B1%86%E7%B6%AD%E5%9F%BA%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>User-Seasurfer/首屆維基大會</t>
+    <t>User-Seasurfer/首届维基大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/User:Wing/%E7%BB%B4%E5%9F%BA%E5%A4%A7%E4%BC%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E8%AA%9E%E8%A6%8F%E7%AF%84%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>馬來西亞華語規範理事會</t>
+    <t>马来西亚华语规范理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9C%AC%E9%9F%B3%E5%90%89</t>
@@ -83,49 +83,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%8E%A8%E5%BB%A3%E8%8F%AF%E8%AA%9E%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>新加坡推廣華語理事會</t>
+    <t>新加坡推广华语理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%A8%E7%97%9B%E7%86%B1%E7%97%87</t>
   </si>
   <si>
-    <t>骨痛熱症</t>
+    <t>骨痛热症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A9%86%E7%A7%BB%E6%B0%91%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>中婆移民協定</t>
+    <t>中婆移民协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E4%B8%96%E4%BF%97%E6%AF%8F%E6%9C%88%E7%B5%B1%E8%A8%98%E5%82%B3</t>
   </si>
   <si>
-    <t>察世俗每月統記傳</t>
+    <t>察世俗每月统记传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%9A%9C%E7%A4%99%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>無障礙環境</t>
+    <t>无障碍环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E8%A1%80%E7%AE%A1%E9%9A%9C%E5%A3%81</t>
   </si>
   <si>
-    <t>腦血管障壁</t>
+    <t>脑血管障壁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%BD%A2%E8%86%A0%E8%B3%AA%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>星形膠質細胞</t>
+    <t>星形胶质细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E5%B0%BF%E7%97%87</t>
   </si>
   <si>
-    <t>頻尿症</t>
+    <t>频尿症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B0%BF%E7%97%87</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BF%E8%B7%AF%E5%8B%95%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>尿路動力學</t>
+    <t>尿路动力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%A0%B1%E5%88%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬來西亞報刊列表</t>
+    <t>马来西亚报刊列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%97%85%E7%A5%9E%E7%B6%93</t>
   </si>
   <si>
-    <t>嗅神經</t>
+    <t>嗅神经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%B0%BF</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%98%80%E9%BB%9E</t>
   </si>
   <si>
-    <t>瘀點</t>
+    <t>瘀点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E6%96%91</t>
@@ -179,61 +179,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E5%88%A9%C2%B7%E7%BE%85%E6%96%AF%E7%89%B9%C2%B7%E6%9C%AC%E5%B0%BC%E8%BF%AA</t>
   </si>
   <si>
-    <t>史丹利·羅斯特·本尼迪</t>
+    <t>史丹利·罗斯特·本尼迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%95%99%E7%A5%88%E7%A6%B1%E5%9C%98</t>
   </si>
   <si>
-    <t>回教祈禱團</t>
+    <t>回教祈祷团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%8F%AF%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>馬華公會</t>
+    <t>马华公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BC%E6%9D%BF%E8%85%BA</t>
   </si>
   <si>
-    <t>瞼板腺</t>
+    <t>睑板腺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E5%9C%9F%E8%91%97</t>
   </si>
   <si>
-    <t>馬來西亞土著</t>
+    <t>马来西亚土著</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B4%B0%E5%AE%89%E6%9C%83%E6%97%97</t>
   </si>
   <si>
-    <t>亞細安會旗</t>
+    <t>亚细安会旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1</t>
   </si>
   <si>
-    <t>擁抱</t>
+    <t>拥抱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E6%B4%B2%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>星洲日報</t>
+    <t>星洲日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來語</t>
+    <t>马来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神經系統</t>
+    <t>神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E4%BB%B7</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E7%8B%80%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>樹狀細胞</t>
+    <t>树状细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E5%85%8B%E5%BA%8A%E9%86%AB%E5%AD%B8%E7%A0%94%E7%A9%B6%E7%8D%8E</t>
   </si>
   <si>
-    <t>拉斯克床醫學研究獎</t>
+    <t>拉斯克床医学研究奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>基礎醫學</t>
+    <t>基础医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8</t>
   </si>
   <si>
-    <t>組織學</t>
+    <t>组织学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>胚胎學</t>
+    <t>胚胎学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E5%AF%84%E7%94%9F%E8%99%AB%E5%AD%A6</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>免疫學</t>
+    <t>免疫学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>病理學</t>
+    <t>病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E7%94%9F%E7%90%86%E5%AD%A6</t>
@@ -317,73 +317,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>細胞學</t>
+    <t>细胞学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>營養學</t>
+    <t>营养学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>藥理學</t>
+    <t>药理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>毒理學</t>
+    <t>毒理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>內科學</t>
+    <t>内科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E9%BC%BB%E5%96%89%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>耳鼻喉科學</t>
+    <t>耳鼻喉科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>眼科學</t>
+    <t>眼科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>心臟病學</t>
+    <t>心脏病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔醫學</t>
+    <t>胸腔医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%83%E8%85%B8%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>胃腸病學</t>
+    <t>胃肠病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F%E7%A7%91</t>
   </si>
   <si>
-    <t>腎臟科</t>
+    <t>肾脏科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%97%85%E5%AD%A6</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳染病學</t>
+    <t>传染病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>腫瘤學</t>
+    <t>肿瘤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>內分泌學</t>
+    <t>内分泌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%B9%BF%E7%97%85%E5%AD%A6</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>兒童醫學</t>
+    <t>儿童医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人醫學</t>
+    <t>老人医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>皮膚病學</t>
+    <t>皮肤病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%9C%BC%E7%A7%91%E5%AD%A6</t>
@@ -449,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神經外科</t>
+    <t>神经外科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E5%A4%96%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔外科學</t>
+    <t>胸腔外科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%84%8F%E5%A4%96%E7%A7%91</t>
@@ -485,73 +485,73 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦產科學</t>
+    <t>妇产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦科學</t>
+    <t>妇科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>產科學</t>
+    <t>产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>解剖學</t>
+    <t>解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>預防醫學</t>
+    <t>预防医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床醫學</t>
+    <t>临床医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>麻醉學</t>
+    <t>麻醉学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神醫學</t>
+    <t>精神医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E5%81%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>復健科學</t>
+    <t>复健科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>旅遊醫學</t>
+    <t>旅游医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>中醫學</t>
+    <t>中医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%B2%E5%90%A0%E9%99%80</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓醫學</t>
+    <t>韩医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E6%96%B9%E5%8C%BB%E5%AD%A6</t>
@@ -575,43 +575,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>藏醫學</t>
+    <t>藏医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙醫學</t>
+    <t>蒙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%8B%A2%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>順勢療法</t>
+    <t>顺势疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>代替醫療</t>
+    <t>代替医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E9%A9%97%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>檢驗醫學</t>
+    <t>检验医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>醫學影像</t>
+    <t>医学影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8C%BB%E5%AD%A6</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>法醫學</t>
+    <t>法医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%95%B0%E5%AD%A6</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E7%8B%80</t>
   </si>
   <si>
-    <t>症狀</t>
+    <t>症状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -689,55 +689,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>專科醫生</t>
+    <t>专科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E9%86%AB%E5%AD%B8%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>家庭醫學科醫師</t>
+    <t>家庭医学科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>麻醉科醫生</t>
+    <t>麻醉科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>外科醫師</t>
+    <t>外科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>護理人員</t>
+    <t>护理人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%AA%A2%E9%A9%97%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事檢驗師</t>
+    <t>医事检验师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%8A%91%E5%B8%AB</t>
   </si>
   <si>
-    <t>藥劑師</t>
+    <t>药剂师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>物理治療師</t>
+    <t>物理治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>職能治療師</t>
+    <t>职能治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E6%B2%BB%E7%96%97%E5%B8%88</t>
@@ -749,79 +749,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%B8%AB</t>
   </si>
   <si>
-    <t>營養師</t>
+    <t>营养师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%94%BE%E5%B0%84%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事放射師</t>
+    <t>医事放射师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>藥物治療</t>
+    <t>药物治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>外科手術</t>
+    <t>外科手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>化學療法</t>
+    <t>化学疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>心理治療</t>
+    <t>心理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>物理治療</t>
+    <t>物理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>職能治療</t>
+    <t>职能治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>醫學史</t>
+    <t>医学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>朝鮮日報</t>
+    <t>朝鲜日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%86%8A%E7%8C%AB</t>
@@ -833,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>國語</t>
+    <t>国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/User:Seasurfer/%E5%B0%8F%E6%A2%9D%E7%9B%AE</t>
   </si>
   <si>
-    <t>User-Seasurfer/小條目</t>
+    <t>User-Seasurfer/小条目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%8B%E8%88%BA%E9%BE%8D%E5%B1%B1%E5%AF%BA</t>
   </si>
   <si>
-    <t>艋舺龍山寺</t>
+    <t>艋舺龙山寺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4</t>
@@ -857,31 +857,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B5%A6</t>
   </si>
   <si>
-    <t>阿給</t>
+    <t>阿给</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E6%98%8E%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>陽明山國家公園</t>
+    <t>阳明山国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中華航空公司</t>
+    <t>中华航空公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E6%9D%BE%E5%B1%B1%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>台北松山機場</t>
+    <t>台北松山机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E7%B8%BD%E7%B5%B1%E5%BA%9C</t>
   </si>
   <si>
-    <t>台北總統府</t>
+    <t>台北总统府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E5%B8%82</t>
@@ -893,25 +893,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立中山大學</t>
+    <t>国立中山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%92%E5%85%89%E6%A8%93</t>
   </si>
   <si>
-    <t>莒光樓</t>
+    <t>莒光楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>公共電話</t>
+    <t>公共电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%9F%8E%E9%8E%AE</t>
   </si>
   <si>
-    <t>金城鎮</t>
+    <t>金城镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8B%E5%BF%98%E5%9C%A8%E8%8E%92</t>
@@ -923,25 +923,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%87%91%E9%96%80</t>
   </si>
   <si>
-    <t>小金門</t>
+    <t>小金门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%88%E9%96%80</t>
   </si>
   <si>
-    <t>廈門</t>
+    <t>厦门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%A0%AD%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>水頭碼頭</t>
+    <t>水头码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E7%B8%A3</t>
   </si>
   <si>
-    <t>金門縣</t>
+    <t>金门县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B1%80</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%B3%E5%9F%8E</t>
   </si>
   <si>
-    <t>檳城</t>
+    <t>槟城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%80%E9%B8%9F</t>
